--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CBF9B-427F-42CC-931A-9C13C198D6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BAFC0-CB6C-4E62-AC5E-31B271B7BFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1492">
   <si>
     <t>נר"ו</t>
   </si>
@@ -4388,6 +4388,114 @@
   </si>
   <si>
     <t>3= לא ידוע</t>
+  </si>
+  <si>
+    <t>4=שם של רב עם תואר כבוד</t>
+  </si>
+  <si>
+    <t>* - מופיע כשם של עיר לא מעט פעמים אך גם תואר כבוד</t>
+  </si>
+  <si>
+    <t>*לא ברור מה זה אבל מההקשר זה כינוי כבוד ולא שם</t>
+  </si>
+  <si>
+    <t>*משמש גם כתואר וגם כחלק ראשון</t>
+  </si>
+  <si>
+    <t>*יותר מופיע כמקצוע לבד מכתיאור כבוד</t>
+  </si>
+  <si>
+    <t>*מופיע גם כשם וגם כתואר</t>
+  </si>
+  <si>
+    <t>*מופיע כפתיחה של נרו יאיר בטקסט עצמו</t>
+  </si>
+  <si>
+    <t>*משה ישראל חזן</t>
+  </si>
+  <si>
+    <t>*לא תואר יותר מקצוע</t>
+  </si>
+  <si>
+    <t>*הכונה צבי - לא ברור למה מוסיפים " במילה זו</t>
+  </si>
+  <si>
+    <t>*מופיע גם כביטוי מורי ואלופי וגם כתואר לתפיק אלופי הקהל וגם כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*לא תואר כבוד יותר תיאור - מחבר ספר - כזיהוי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*יותר מופיע כמקצוע </t>
+  </si>
+  <si>
+    <t>*מציין שנה</t>
+  </si>
+  <si>
+    <t>*חלק מביטוי אור ישראל וקודשו</t>
+  </si>
+  <si>
+    <t>*כנראה שם פרטי אמצעי בשפה זרה של חכם שמופיע הרבה בטקסט</t>
+  </si>
+  <si>
+    <t>*ידיו ורגליו</t>
+  </si>
+  <si>
+    <t>*מופיע הרבה לא כתואר כבוד לאנשים מסויימים אלא כדיבור על אנשים סתמיים</t>
+  </si>
+  <si>
+    <t>*נשמתו בגנזי מרומים</t>
+  </si>
+  <si>
+    <t>*יותר מקצוע מתואר כבוד</t>
+  </si>
+  <si>
+    <t>*להבדיל בין חיים לחיים</t>
+  </si>
+  <si>
+    <t>*חלק מביטוי גאון עוזנו</t>
+  </si>
+  <si>
+    <t>*לפעמים חלק מתואר אביר הרועים לפעמים תואר אביר יעקב לפעמים ציטוט הפסוק אביר יעקב ולפעמים ספר אביר יעקב</t>
+  </si>
+  <si>
+    <t>*מופיע בעיקר כדרך לפניה בגוף שלישי ולא כתואר לפני השם</t>
+  </si>
+  <si>
+    <t>*מופיע בעיקר כתפקיד ולא כתואר כבוד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*מופיע הרבה כתואר כבוד אבל גם לא מעט כקיצור למילה "כמות" </t>
+  </si>
+  <si>
+    <t>*מופיע כתואר כבוד אבל בעיקר כפניה מכובדת בגוף שלישי</t>
+  </si>
+  <si>
+    <t>*דעל ידי תערובת ותואר כבוד לעיר שלא הבנתי את הפתיחה שלו</t>
+  </si>
+  <si>
+    <t>*שם משפחה</t>
+  </si>
+  <si>
+    <t>*תואר כבוד לא הבנתי את פתיחתו</t>
+  </si>
+  <si>
+    <t>*תיאור אופי  אך גם יש בו כבוד</t>
+  </si>
+  <si>
+    <t>*סימן דף או שנה ב</t>
+  </si>
+  <si>
+    <t>*לרוב חלק משם של ספר</t>
+  </si>
+  <si>
+    <t>*הרבה כפניה סתמית</t>
+  </si>
+  <si>
+    <t>*בעיקר כמקצוע</t>
+  </si>
+  <si>
+    <t>*תואר לפני שם של עיר</t>
   </si>
 </sst>
 </file>
@@ -4763,20 +4871,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1454"/>
+  <dimension ref="A1:M1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1195" workbookViewId="0">
-      <selection activeCell="B1233" sqref="B1233"/>
+    <sheetView tabSelected="1" topLeftCell="A647" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A689" sqref="A689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +4895,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4798,15 +4906,18 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4814,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4846,60 +4957,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5166,23 +5298,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5190,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5198,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5206,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5214,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5222,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5230,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5238,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5246,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5254,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5262,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5270,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5278,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5286,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5294,15 +5429,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5310,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5318,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -5326,7 +5461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5342,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5350,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5358,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -5366,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5374,15 +5509,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5390,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5398,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5406,12 +5541,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -5427,7 +5565,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -5443,7 +5581,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -5867,7 +6005,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -5926,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -5934,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -5942,39 +6080,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -5982,15 +6126,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5998,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6006,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -6014,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -6022,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -6030,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6038,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6046,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6115,7 +6259,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -6123,7 +6267,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -6155,7 +6299,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -6182,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -6190,15 +6334,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -6206,15 +6350,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -6222,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -6230,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -6238,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -6246,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -6254,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -6262,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -6270,15 +6417,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -6286,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -6294,7 +6444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -6302,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -6310,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -6318,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -6326,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -6334,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -6342,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -6350,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -6358,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -6366,15 +6516,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J200" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -6382,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -6390,7 +6543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -6398,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -6406,7 +6559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -6414,15 +6567,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -6430,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -6438,23 +6591,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -6462,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -6470,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -6478,7 +6634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -6486,7 +6642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -6494,7 +6650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -6502,31 +6658,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -6534,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -6542,15 +6701,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -6558,7 +6717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -6566,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -6574,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -6582,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -6590,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -6598,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -6606,7 +6765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -6614,23 +6773,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -6638,7 +6800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -6646,15 +6808,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -6662,15 +6824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -6678,7 +6840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -6686,7 +6848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -6694,7 +6856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -6702,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -6710,7 +6872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -6718,7 +6880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -6726,15 +6888,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -6742,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -6750,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -6758,7 +6923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -6766,7 +6931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -6774,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -6782,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -6790,15 +6955,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -6806,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -6814,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -6827,7 +6992,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -6835,7 +7000,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -6875,7 +7040,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -6891,7 +7056,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -6899,7 +7064,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -6923,7 +7088,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -6931,7 +7096,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -6939,7 +7104,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -6958,15 +7123,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -6974,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -6982,7 +7147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -6990,23 +7155,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -7014,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -7022,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -7030,15 +7201,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -7046,31 +7217,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -7099,7 +7273,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -7107,7 +7281,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -7139,7 +7313,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -7163,7 +7337,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -7203,42 +7377,51 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>303</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
       <c r="B306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -7246,15 +7429,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>308</v>
       </c>
       <c r="B310">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -7262,23 +7445,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>310</v>
       </c>
       <c r="B312">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>311</v>
       </c>
       <c r="B313">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -7286,15 +7469,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -7302,15 +7488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>315</v>
       </c>
       <c r="B317">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -7318,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -7326,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -7339,7 +7525,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -7419,7 +7605,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -7443,7 +7629,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -7462,15 +7648,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>335</v>
       </c>
       <c r="B337">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -7478,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -7486,7 +7675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -7494,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -7502,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -7510,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -7518,15 +7707,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>342</v>
       </c>
       <c r="B344">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -7534,15 +7723,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>344</v>
       </c>
       <c r="B346">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -7550,7 +7742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -7558,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -7566,7 +7758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -7574,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -7582,12 +7774,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>350</v>
       </c>
       <c r="B352">
         <v>2</v>
+      </c>
+      <c r="J352" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -7627,7 +7822,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -7643,7 +7838,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -7651,7 +7846,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -7667,7 +7862,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -7675,7 +7870,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -7707,7 +7902,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -7731,7 +7926,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -7755,7 +7950,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -7771,7 +7966,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -7787,7 +7982,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -7846,7 +8041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -7854,15 +8049,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>384</v>
       </c>
       <c r="B386">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -7870,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -7878,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -7886,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -7894,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -7902,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -7910,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -7918,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -7926,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -7934,7 +8129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -7942,15 +8137,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>395</v>
       </c>
       <c r="B397">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -7958,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -7966,12 +8164,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>398</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -8035,7 +8233,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -8099,26 +8297,26 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>415</v>
       </c>
       <c r="B417">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -8126,7 +8324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -8134,7 +8332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -8142,7 +8340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -8150,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -8158,7 +8356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -8166,7 +8364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -8174,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -8182,23 +8380,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J428" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -8206,31 +8410,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>428</v>
       </c>
       <c r="B430">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -8238,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -8246,15 +8450,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>433</v>
       </c>
       <c r="B435">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -8262,7 +8466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -8270,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -8278,23 +8482,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>437</v>
       </c>
       <c r="B439">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>438</v>
       </c>
       <c r="B440">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -8302,7 +8506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -8310,7 +8514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -8318,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -8326,15 +8530,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>443</v>
       </c>
       <c r="B445">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -8342,7 +8549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -8350,12 +8557,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>446</v>
       </c>
       <c r="B448">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -8379,7 +8586,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -8427,7 +8634,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -8435,7 +8642,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -8443,7 +8650,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -8451,7 +8658,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -8459,7 +8666,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -8467,7 +8674,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -8486,7 +8693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -8494,7 +8701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -8502,7 +8709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -8510,15 +8717,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>466</v>
       </c>
       <c r="B468">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -8526,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -8534,7 +8741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -8542,7 +8749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -8550,31 +8757,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>471</v>
       </c>
       <c r="B473">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>472</v>
       </c>
       <c r="B474">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>473</v>
       </c>
       <c r="B475">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -8582,23 +8795,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>475</v>
       </c>
       <c r="B477">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>476</v>
       </c>
       <c r="B478">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -8606,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -8614,7 +8827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -8622,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -8630,7 +8843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -8638,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -8646,15 +8859,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>483</v>
       </c>
       <c r="B485">
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C485" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -8662,15 +8878,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>485</v>
       </c>
       <c r="B487">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -8678,15 +8894,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>487</v>
       </c>
       <c r="B489">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -8694,7 +8910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -8702,7 +8918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -8710,15 +8926,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>491</v>
       </c>
       <c r="B493">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -8726,20 +8942,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>493</v>
       </c>
       <c r="B495">
         <v>2</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J495" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>494</v>
       </c>
       <c r="B496">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -8747,7 +8966,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -8755,7 +8974,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -8787,7 +9006,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -8795,7 +9014,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -8803,7 +9022,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -8835,7 +9054,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -8843,7 +9062,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -8859,7 +9078,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -8875,7 +9094,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -8891,7 +9110,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -8899,7 +9118,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -8915,7 +9134,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -8923,7 +9142,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -8971,7 +9190,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -8987,7 +9206,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -8995,10 +9214,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>527</v>
       </c>
@@ -9006,7 +9225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>528</v>
       </c>
@@ -9014,15 +9233,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>529</v>
       </c>
       <c r="B531">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>530</v>
       </c>
@@ -9030,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>531</v>
       </c>
@@ -9038,7 +9257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>532</v>
       </c>
@@ -9046,15 +9265,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>533</v>
       </c>
       <c r="B535">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>534</v>
       </c>
@@ -9062,31 +9284,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>535</v>
       </c>
       <c r="B537">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>538</v>
       </c>
@@ -9094,23 +9316,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>540</v>
       </c>
       <c r="B542">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>541</v>
       </c>
@@ -9118,7 +9343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>542</v>
       </c>
@@ -9126,15 +9351,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>543</v>
       </c>
       <c r="B545">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>544</v>
       </c>
@@ -9142,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>545</v>
       </c>
@@ -9150,15 +9375,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>546</v>
       </c>
       <c r="B548">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -9166,15 +9394,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>548</v>
       </c>
       <c r="B550">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -9182,7 +9410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -9190,15 +9418,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>551</v>
       </c>
       <c r="B553">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -9206,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -9214,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -9222,7 +9450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -9230,7 +9458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -9238,15 +9466,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -9254,15 +9482,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>559</v>
       </c>
       <c r="B561">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -9270,15 +9498,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>561</v>
       </c>
       <c r="B563">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -9286,47 +9514,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>563</v>
       </c>
       <c r="B565">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>564</v>
       </c>
       <c r="B566">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>565</v>
       </c>
       <c r="B567">
         <v>2</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J567" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>566</v>
       </c>
       <c r="B568">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>567</v>
       </c>
       <c r="B569">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -9334,15 +9571,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>569</v>
       </c>
       <c r="B571">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -9350,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -9358,15 +9595,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>572</v>
       </c>
       <c r="B574">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -9374,7 +9611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -9382,7 +9619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -9390,15 +9627,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>576</v>
       </c>
       <c r="B578">
         <v>3</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C578" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -9406,23 +9646,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>578</v>
       </c>
       <c r="B580">
         <v>3</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C580" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>579</v>
       </c>
       <c r="B581">
         <v>3</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C581" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -9430,7 +9676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -9438,15 +9684,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>582</v>
       </c>
       <c r="B584">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -9454,7 +9700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -9462,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -9470,7 +9716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -9478,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -9486,7 +9732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -9494,7 +9740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -9502,23 +9748,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>590</v>
       </c>
       <c r="B592">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>591</v>
       </c>
       <c r="B593">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -9526,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -9534,7 +9780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -9542,7 +9788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -9550,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -9558,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -9566,7 +9812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -9574,7 +9820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -9582,15 +9828,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>600</v>
       </c>
       <c r="B602">
         <v>3</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C602" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -9598,7 +9847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -9606,15 +9855,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>603</v>
       </c>
       <c r="B605">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -9622,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -9630,7 +9879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -9638,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -9646,7 +9895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -9654,7 +9903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -9662,7 +9911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -9670,15 +9919,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>611</v>
       </c>
       <c r="B613">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -9686,7 +9935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -9694,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -9702,15 +9951,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>615</v>
       </c>
       <c r="B617">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>616</v>
       </c>
@@ -9718,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -9726,15 +9978,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>618</v>
       </c>
       <c r="B620">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>619</v>
       </c>
@@ -9742,23 +9994,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>620</v>
       </c>
       <c r="B622">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>621</v>
       </c>
       <c r="B623">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -9766,7 +10021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>623</v>
       </c>
@@ -9774,15 +10029,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>624</v>
       </c>
       <c r="B626">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>625</v>
       </c>
@@ -9790,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>626</v>
       </c>
@@ -9798,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>627</v>
       </c>
@@ -9806,7 +10061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>628</v>
       </c>
@@ -9814,7 +10069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>629</v>
       </c>
@@ -9822,23 +10077,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>630</v>
       </c>
       <c r="B632">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>631</v>
       </c>
       <c r="B633">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>632</v>
       </c>
@@ -9846,23 +10107,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>633</v>
       </c>
       <c r="B635">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>634</v>
       </c>
       <c r="B636">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>635</v>
       </c>
@@ -9870,7 +10131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>636</v>
       </c>
@@ -9878,7 +10139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>637</v>
       </c>
@@ -9886,7 +10147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>638</v>
       </c>
@@ -9894,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>639</v>
       </c>
@@ -9902,7 +10163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>640</v>
       </c>
@@ -9910,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>641</v>
       </c>
@@ -9918,31 +10179,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>642</v>
       </c>
       <c r="B644">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>643</v>
       </c>
       <c r="B645">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>644</v>
       </c>
       <c r="B646">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>645</v>
       </c>
@@ -9950,7 +10214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>646</v>
       </c>
@@ -9958,15 +10222,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>647</v>
       </c>
       <c r="B649">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>648</v>
       </c>
@@ -9974,47 +10238,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>649</v>
       </c>
       <c r="B651">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>650</v>
       </c>
       <c r="B652">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>651</v>
       </c>
       <c r="B653">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>652</v>
       </c>
       <c r="B654">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>653</v>
       </c>
       <c r="B655">
         <v>2</v>
       </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C655" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>654</v>
       </c>
@@ -10022,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>655</v>
       </c>
@@ -10030,23 +10300,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>656</v>
       </c>
       <c r="B658">
         <v>1</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C658" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>657</v>
       </c>
       <c r="B659">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>658</v>
       </c>
@@ -10054,15 +10327,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>659</v>
       </c>
       <c r="B661">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>660</v>
       </c>
@@ -10070,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>661</v>
       </c>
@@ -10078,15 +10354,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>662</v>
       </c>
       <c r="B664">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>663</v>
       </c>
@@ -10094,7 +10370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>664</v>
       </c>
@@ -10102,7 +10378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>665</v>
       </c>
@@ -10110,7 +10386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>666</v>
       </c>
@@ -10118,15 +10394,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>667</v>
       </c>
       <c r="B669">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>668</v>
       </c>
@@ -10134,7 +10413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>669</v>
       </c>
@@ -10142,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>670</v>
       </c>
@@ -10150,15 +10429,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>671</v>
       </c>
       <c r="B673">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>672</v>
       </c>
@@ -10166,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>673</v>
       </c>
@@ -10174,7 +10453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>674</v>
       </c>
@@ -10182,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>675</v>
       </c>
@@ -10190,7 +10469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>676</v>
       </c>
@@ -10198,15 +10477,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>677</v>
       </c>
       <c r="B679">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>678</v>
       </c>
@@ -10214,7 +10496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>679</v>
       </c>
@@ -10222,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>680</v>
       </c>
@@ -10230,7 +10512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>681</v>
       </c>
@@ -10238,23 +10520,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>682</v>
       </c>
       <c r="B684">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>683</v>
       </c>
       <c r="B685">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>684</v>
       </c>
@@ -10262,20 +10544,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>685</v>
       </c>
       <c r="B687">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>686</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">

--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BAFC0-CB6C-4E62-AC5E-31B271B7BFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A583D-86F7-4AED-99DE-4D1041EA13EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1583">
   <si>
     <t>נר"ו</t>
   </si>
@@ -4496,6 +4496,279 @@
   </si>
   <si>
     <t>*תואר לפני שם של עיר</t>
+  </si>
+  <si>
+    <t>*ציון שם ספרו ולא תואר כבוד</t>
+  </si>
+  <si>
+    <t>*יש לי קצת ספק אולי זה לא תמיד תואר כבוד לאב אלא שם פרטי בחלק מהמקרים אך לא הצלחתי להבין בדיוק מקריעה ברפרוף</t>
+  </si>
+  <si>
+    <t>*הרבה פעמים כינוי סתמי - הרבה פעמים ברבים- לרבנים ששמם לא הוזכר כלל  הפתיחה היא כנראה "מחשובי רבני" וכו</t>
+  </si>
+  <si>
+    <t>*רוב פאר מעלתו</t>
+  </si>
+  <si>
+    <t>*לא הבנתי את הפתיחה אך נראה שזה כינוי כבוד (לדוגמה ראיתי שבישבה מסויימת מכנים את ראש הישבה רק כמני"ר כל הזמן בכתבים על אף שאין זה קשור לראשי התיבות של שמו)</t>
+  </si>
+  <si>
+    <t>*חלק מביטוי של הרב הראשי של...</t>
+  </si>
+  <si>
+    <t>*לפעמים מופיע כברכה לאחר הזכרת אנשי מקום כלשהו ולא כתואר לאדם מסויים</t>
+  </si>
+  <si>
+    <t>*לפעמים קצת בעייתי - מופיע כחבר של אדם פלוני ולא כתואר כבוד- וכן מופיע כתיאור ל"חבר" במעשרות וישנם איזכורים לחבר בספר הכוזרי אך ישנם גם לא מעט הופעות כתואר כבוד לרב</t>
+  </si>
+  <si>
+    <t>*שם של ספר או מופיע כתפקיד, מיעוט קטן "יורנו מורה צדק"</t>
+  </si>
+  <si>
+    <t>*הרבה פעים כחלק מביטוי "סבא דמשפטים" שבא כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*יותר תפקיד מתואר כבוד</t>
+  </si>
+  <si>
+    <t>*כנראהתואר כבוד לא הבנתי מה הפתיחה</t>
+  </si>
+  <si>
+    <t>*מופיע כתואר כבוד רב חביבאי</t>
+  </si>
+  <si>
+    <t>*בעקרון תפקיד אך מציינים את זה לא מעט באופן שנרא כתואר כבוד - הרב השד"ר פלוני אך ישנם התייחסויות לתפקיד עצמו ולא ככבוד</t>
+  </si>
+  <si>
+    <t>*מופיע גם מעט כשם ספר, אומנם זה למעשה בא לתאר מקצוע אך יותר במובן של כבוד</t>
+  </si>
+  <si>
+    <t>*מופיע בהרבה משמעויות בראשית רבה, ביאה ראשונה, בתר רובה, וכן כתואר כבוד בלא מעט פעמים ויתכן שישנם עוד משמעויות לא עברתי על הכל</t>
+  </si>
+  <si>
+    <t>*תואר כבוד אבל מופיע הרבה כתואר לא לאדם אלא לדברים כתבים ספרים חידושים וכדו'</t>
+  </si>
+  <si>
+    <t>*ככל הנראה ראשי תיבות של שם</t>
+  </si>
+  <si>
+    <t>*משמש כציון מקצוע ולפעמים אפילו כתיאור אדם סתמי אך גם תואר כבוד</t>
+  </si>
+  <si>
+    <t>*יותר כתיאור אנשים - כך אמרו רבני עיר פלונית כך כתבו או כך הורו, ובדר"כ בעת התייחסות סתמית ללא שמות אלא כקבוצה</t>
+  </si>
+  <si>
+    <t>*אדוני, אך לפעמים כאדונו במובן של בעלים של עבד או משרת</t>
+  </si>
+  <si>
+    <t>*מופיע גם כתואר כבוד, כהרב, אך גם כשם ה' וכסימן לדף או לתשובה או לפרק</t>
+  </si>
+  <si>
+    <t>*תואר כבוד, לא הבנתי פתיחתו</t>
+  </si>
+  <si>
+    <t>*ישנם גם אזכורים שאינם כבוד כגון כותלי בית הרחם או קיצור לרשות הרבים, אך מסקירה שערכתי נראה לי שבעיקר תואר כבוד</t>
+  </si>
+  <si>
+    <t>*ישנם מקומות שזהו חלק משם</t>
+  </si>
+  <si>
+    <t>*ישנו כתואר כבוד וישנו בעוד פירושים כגון האות ש' או ה300 או השם וישנם הרבה אזכורים שונים אך ישנם הרבה  אזכורי כבוד</t>
+  </si>
+  <si>
+    <t>*יותר מוסיע ביחס לספרים וכתבים, וכן ישנו ספר הבהיר , וכן ישנם מקומות שהכוונה שהוא הבהיר את דבריו</t>
+  </si>
+  <si>
+    <t>*תואר ענווה עצמי זה תואר כבוד?</t>
+  </si>
+  <si>
+    <t>*לא כבוד בדויק, מחבר ספר זה ציון לצורך זיהוי</t>
+  </si>
+  <si>
+    <t>*כנ"ל לגבי המח"ס</t>
+  </si>
+  <si>
+    <t>*החריף ובקי טובא</t>
+  </si>
+  <si>
+    <t>*מופיע גם ביחס לדברים וחפצים כגון ארון הקודש המפואר אך בעיקר כבוד לאנשים מבדיקה קצרה</t>
+  </si>
+  <si>
+    <t>*גברא רבה ויקירא אך מופיע גם ביחס לדברים נוספים כגון מחילה רבה ויקירא או ב"ד רבה ויקירא</t>
+  </si>
+  <si>
+    <t>*כבוד אך גם מקצוע</t>
+  </si>
+  <si>
+    <t>*ככל הנראה דקהילת או משהו בסיגנון</t>
+  </si>
+  <si>
+    <t>*ישנם גם אזכורים שאינם קשורים לכבוד כגון בית הדין הרבני</t>
+  </si>
+  <si>
+    <t>*לפעמים ככבוד לפעמים כתאור לתפקיד כגון נכבדי אותו מקום אמרו או נכבדי המשפחה או נכבדי הקהל</t>
+  </si>
+  <si>
+    <t>*ברכה, כנראה כל אשר לך שלום אך אני לא בטוח שזה הפירוש הנכון בכל מקום</t>
+  </si>
+  <si>
+    <t>*החריף והבקי</t>
+  </si>
+  <si>
+    <t>*מופיע פעמיים או יותר כמילה ,צמח, שהוסיפו לה גרשיים כי התייחסו לגמטריה שלה או כי זה ציטוט מההפטרה של השבוע ולכל מילה הוכנסו גרשיים במשפט</t>
+  </si>
+  <si>
+    <t>*מחתם סופר, מחרם סתם, וגם מחבר ספר זה לא כל כך תואר כבוד אלא ציון לצורך זיהוי</t>
+  </si>
+  <si>
+    <t>*תפקיד יותר מכבוד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* כנראה יראה זרע יאריך ימים אמן </t>
+  </si>
+  <si>
+    <t>*כנל לגבי שאר המוצים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*אולי זה הפוך מתואר כבוד? </t>
+  </si>
+  <si>
+    <t>*לא רק במובן הצבאי אלא גם תואר לחשיבות ושררה</t>
+  </si>
+  <si>
+    <t>*כנל לגבי אבד</t>
+  </si>
+  <si>
+    <t>* יכוננה בצדק - זה תיאור למקומות ולא לאנשים</t>
+  </si>
+  <si>
+    <t>*הרבה פעמים מופיע כשער הזקן או לאדם שהוא הזדקן וקיים מספר מסויים של תארים של זקן (הרבה גם מתוך כינויי הראשונים והתנאים: שמאי הזקן ר"י הזקן)</t>
+  </si>
+  <si>
+    <t>*אחר דרישת שלומו הטוב</t>
+  </si>
+  <si>
+    <t>*כנל לגבי אב"ד</t>
+  </si>
+  <si>
+    <t>*לפעמים מציין סימן</t>
+  </si>
+  <si>
+    <t>*לא הבנתי את הפתיחה, לפעמים זה פתיחת הקבר, כנראה שלפעמים זה שם של מקום או כינוי לשם של מקום ויתכן שזה גם תואר כבוד, אני לא מצליח להחליט האם זה כינוי כבוד או תיאור על מקומו של רב פלוני</t>
+  </si>
+  <si>
+    <t>*לא הבנתי מה הפתיחה אך זה נראה כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*העיר צפת</t>
+  </si>
+  <si>
+    <t>*אמן נצח סלה ועד</t>
+  </si>
+  <si>
+    <t>*כבוד קדושת שלום תורתו</t>
+  </si>
+  <si>
+    <t>*חונה פה קהילת, יתכן שישנה פתיחה אחרת בחלק מהמקרים (הופיע בכמה מקרים חופ"ק הנ"ל וחלק רק חופ"ק)</t>
+  </si>
+  <si>
+    <t>*לאורך ימים טובים</t>
+  </si>
+  <si>
+    <t>*בחדרי תורה</t>
+  </si>
+  <si>
+    <t>*הדיין המצוין</t>
+  </si>
+  <si>
+    <t>*כנל לגבי ראבד</t>
+  </si>
+  <si>
+    <t>*מופעי ככבוד אך גם כתאור לאדם סתמי שהוא אברך וכן כעתיד גוף ראשון של ברך - אני אברך אותך</t>
+  </si>
+  <si>
+    <t>*אחר דרישת שלום טובתו</t>
+  </si>
+  <si>
+    <t>*נראה כתואר כבוד לא הבנתי מה הפתיחה</t>
+  </si>
+  <si>
+    <t>*רום פאר מעלתו</t>
+  </si>
+  <si>
+    <t>*כנל לגבי מוץ</t>
+  </si>
+  <si>
+    <t>*מופיע גם כתואר כבוד אך גם הרבה כחלק משם של ספר</t>
+  </si>
+  <si>
+    <t>*דמורי זקני</t>
+  </si>
+  <si>
+    <t>*יותר ציון זיהוי מתואר כבוד</t>
+  </si>
+  <si>
+    <t>*ועטרת ראשינו</t>
+  </si>
+  <si>
+    <t>*לא תואר כבוד אלא ציון לצורך זיהוי או הרחבה על הדמות</t>
+  </si>
+  <si>
+    <t>*עדינו העצני</t>
+  </si>
+  <si>
+    <t>*מדודי וזקני</t>
+  </si>
+  <si>
+    <t>*קצת בעייתי, זה גם שם משפחה, גם תפקיד,מופיע הרבה כחלק מציטוט פסוקים אך מופיע גם כתואר כבוד למשל קצין הדור</t>
+  </si>
+  <si>
+    <t>*באהבה רבה</t>
+  </si>
+  <si>
+    <t>*תואר לעיר</t>
+  </si>
+  <si>
+    <t>*צדיק מעולף ספירים</t>
+  </si>
+  <si>
+    <t>*מופיע גם כ350 וגם ביחס לערים</t>
+  </si>
+  <si>
+    <t>*קצת מסופק לגבי זה, מופיע בעיקר כ נתכבדתי ביקרתו</t>
+  </si>
+  <si>
+    <t>*למעלה - הנזכר למעלה</t>
+  </si>
+  <si>
+    <t>*בוצינא דנהורא</t>
+  </si>
+  <si>
+    <t>*מופיע גם  בתור לשלום בית</t>
+  </si>
+  <si>
+    <t>*מופיג גם כשמואל ב ועוד דברים שלא הצלחתי לפענח אך נראה שהרוב תואר כבוד</t>
+  </si>
+  <si>
+    <t>*מופיע גם לא כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*לא ברור לי לגמרי שזה ראשי תבות של חכם, יתכן שזה שם משפחה או אולי גם כינוי כבוד או שם של ספר לא הצלחתי להבין לגמרי מהאזכורים של המילה</t>
+  </si>
+  <si>
+    <t>*מופיע לפעמים ביחס לכתבים ודברים ולא לאנשים</t>
+  </si>
+  <si>
+    <t>*חלק מביטוי אור יקרות וקפאון שמופיע כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*חלק מביטוי עטרת ראשנו לעטרת צבי</t>
+  </si>
+  <si>
+    <t>*מופיע גם ביחס לדברים</t>
+  </si>
+  <si>
+    <t>*האבה פעמים מופיע בהקשרים שונים לא קשורים, כנראה גם ראשי תיבות של חכם או ספר</t>
   </si>
 </sst>
 </file>
@@ -4873,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A647" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A689" sqref="A689"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1452" sqref="C1452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10560,39 +10833,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>687</v>
       </c>
       <c r="B689">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>688</v>
       </c>
       <c r="B690">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>689</v>
       </c>
       <c r="B691">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>690</v>
       </c>
       <c r="B692">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>691</v>
       </c>
@@ -10600,7 +10876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>692</v>
       </c>
@@ -10608,15 +10884,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>693</v>
       </c>
       <c r="B695">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>694</v>
       </c>
@@ -10624,7 +10903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>695</v>
       </c>
@@ -10632,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>696</v>
       </c>
@@ -10640,23 +10919,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>697</v>
       </c>
       <c r="B699">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>698</v>
       </c>
       <c r="B700">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>699</v>
       </c>
@@ -10664,7 +10943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>700</v>
       </c>
@@ -10672,7 +10951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>701</v>
       </c>
@@ -10680,7 +10959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>702</v>
       </c>
@@ -10688,7 +10967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>703</v>
       </c>
@@ -10696,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>704</v>
       </c>
@@ -10704,23 +10983,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>705</v>
       </c>
       <c r="B707">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>706</v>
       </c>
       <c r="B708">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>707</v>
       </c>
@@ -10728,7 +11010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>708</v>
       </c>
@@ -10736,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>709</v>
       </c>
@@ -10744,7 +11026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>710</v>
       </c>
@@ -10752,7 +11034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>711</v>
       </c>
@@ -10760,15 +11042,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>712</v>
       </c>
       <c r="B714">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>713</v>
       </c>
@@ -10776,23 +11058,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>714</v>
       </c>
       <c r="B716">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>715</v>
       </c>
       <c r="B717">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>716</v>
       </c>
@@ -10800,15 +11085,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>717</v>
       </c>
       <c r="B719">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>718</v>
       </c>
@@ -10816,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>719</v>
       </c>
@@ -10824,7 +11109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>720</v>
       </c>
@@ -10832,7 +11117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>721</v>
       </c>
@@ -10840,7 +11125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>722</v>
       </c>
@@ -10848,23 +11133,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>723</v>
       </c>
       <c r="B725">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>724</v>
       </c>
       <c r="B726">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>725</v>
       </c>
@@ -10872,15 +11160,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>726</v>
       </c>
       <c r="B728">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>727</v>
       </c>
@@ -10888,7 +11176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>728</v>
       </c>
@@ -10896,31 +11184,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>729</v>
       </c>
       <c r="B731">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>730</v>
       </c>
       <c r="B732">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>731</v>
       </c>
       <c r="B733">
         <v>3</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C733" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>732</v>
       </c>
@@ -10928,7 +11222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>733</v>
       </c>
@@ -10936,15 +11230,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>734</v>
       </c>
       <c r="B736">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>735</v>
       </c>
@@ -10952,7 +11246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>736</v>
       </c>
@@ -10960,7 +11254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>737</v>
       </c>
@@ -10968,23 +11262,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>738</v>
       </c>
       <c r="B740">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>739</v>
       </c>
       <c r="B741">
         <v>1</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C741" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>740</v>
       </c>
@@ -10992,39 +11289,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>741</v>
       </c>
       <c r="B743">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>742</v>
       </c>
       <c r="B744">
         <v>1</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C744" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>743</v>
       </c>
       <c r="B745">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>744</v>
       </c>
       <c r="B746">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>745</v>
       </c>
@@ -11032,15 +11338,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>746</v>
       </c>
       <c r="B748">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>747</v>
       </c>
@@ -11048,7 +11354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>748</v>
       </c>
@@ -11056,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>749</v>
       </c>
@@ -11064,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>750</v>
       </c>
@@ -11072,7 +11378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>751</v>
       </c>
@@ -11080,7 +11386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>752</v>
       </c>
@@ -11088,7 +11394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>753</v>
       </c>
@@ -11096,15 +11402,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>754</v>
       </c>
       <c r="B756">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>755</v>
       </c>
@@ -11112,7 +11418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>756</v>
       </c>
@@ -11120,23 +11426,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>757</v>
       </c>
       <c r="B759">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>758</v>
       </c>
       <c r="B760">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>759</v>
       </c>
@@ -11144,15 +11450,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>760</v>
       </c>
       <c r="B762">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>761</v>
       </c>
@@ -11160,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>762</v>
       </c>
@@ -11168,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>763</v>
       </c>
@@ -11176,7 +11482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>764</v>
       </c>
@@ -11184,15 +11490,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>765</v>
       </c>
       <c r="B767">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>766</v>
       </c>
@@ -11200,7 +11509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>767</v>
       </c>
@@ -11208,7 +11517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>768</v>
       </c>
@@ -11216,7 +11525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>769</v>
       </c>
@@ -11224,23 +11533,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>770</v>
       </c>
       <c r="B772">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>771</v>
       </c>
       <c r="B773">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>772</v>
       </c>
@@ -11248,7 +11560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>773</v>
       </c>
@@ -11256,15 +11568,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>774</v>
       </c>
       <c r="B776">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>775</v>
       </c>
@@ -11272,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>776</v>
       </c>
@@ -11280,23 +11595,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>777</v>
       </c>
       <c r="B779">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>778</v>
       </c>
       <c r="B780">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>779</v>
       </c>
@@ -11304,15 +11619,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>780</v>
       </c>
       <c r="B782">
         <v>1</v>
       </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C782" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>781</v>
       </c>
@@ -11320,31 +11638,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>782</v>
       </c>
       <c r="B784">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>783</v>
       </c>
       <c r="B785">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>784</v>
       </c>
       <c r="B786">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>785</v>
       </c>
@@ -11352,7 +11670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>786</v>
       </c>
@@ -11360,7 +11678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>787</v>
       </c>
@@ -11368,23 +11686,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>788</v>
       </c>
       <c r="B790">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>789</v>
       </c>
       <c r="B791">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>790</v>
       </c>
@@ -11392,7 +11716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>791</v>
       </c>
@@ -11400,39 +11724,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>792</v>
       </c>
       <c r="B794">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>793</v>
       </c>
       <c r="B795">
         <v>3</v>
       </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C795" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>794</v>
       </c>
       <c r="B796">
         <v>2</v>
       </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C796" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>795</v>
       </c>
       <c r="B797">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>796</v>
       </c>
@@ -11440,7 +11773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>797</v>
       </c>
@@ -11448,7 +11781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>798</v>
       </c>
@@ -11456,7 +11789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>799</v>
       </c>
@@ -11464,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>800</v>
       </c>
@@ -11472,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>801</v>
       </c>
@@ -11480,39 +11813,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>802</v>
       </c>
       <c r="B804">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>803</v>
       </c>
       <c r="B805">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>804</v>
       </c>
       <c r="B806">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>805</v>
       </c>
       <c r="B807">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>806</v>
       </c>
@@ -11520,15 +11856,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>807</v>
       </c>
       <c r="B809">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>808</v>
       </c>
@@ -11536,7 +11872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>809</v>
       </c>
@@ -11544,7 +11880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>810</v>
       </c>
@@ -11552,15 +11888,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>811</v>
       </c>
       <c r="B813">
         <v>1</v>
       </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C813" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>812</v>
       </c>
@@ -11568,7 +11907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>813</v>
       </c>
@@ -11576,15 +11915,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>814</v>
       </c>
       <c r="B816">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>815</v>
       </c>
@@ -11592,7 +11931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>816</v>
       </c>
@@ -11600,23 +11939,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>817</v>
       </c>
       <c r="B819">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>818</v>
       </c>
       <c r="B820">
         <v>2</v>
       </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C820" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>819</v>
       </c>
@@ -11624,15 +11966,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>820</v>
       </c>
       <c r="B822">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>821</v>
       </c>
@@ -11640,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>822</v>
       </c>
@@ -11648,7 +11990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>823</v>
       </c>
@@ -11656,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>824</v>
       </c>
@@ -11664,7 +12006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>825</v>
       </c>
@@ -11672,7 +12014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>826</v>
       </c>
@@ -11680,7 +12022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>827</v>
       </c>
@@ -11688,15 +12030,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>828</v>
       </c>
       <c r="B830">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>829</v>
       </c>
@@ -11704,15 +12049,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>830</v>
       </c>
       <c r="B832">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>831</v>
       </c>
@@ -11720,7 +12068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>832</v>
       </c>
@@ -11728,7 +12076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>833</v>
       </c>
@@ -11736,7 +12084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>834</v>
       </c>
@@ -11744,15 +12092,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>835</v>
       </c>
       <c r="B837">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>836</v>
       </c>
@@ -11760,7 +12111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>837</v>
       </c>
@@ -11768,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>838</v>
       </c>
@@ -11776,7 +12127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>839</v>
       </c>
@@ -11784,15 +12135,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>840</v>
       </c>
       <c r="B842">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>841</v>
       </c>
@@ -11800,7 +12154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>842</v>
       </c>
@@ -11808,15 +12162,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>843</v>
       </c>
       <c r="B845">
         <v>1</v>
       </c>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C845" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>844</v>
       </c>
@@ -11824,7 +12181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>845</v>
       </c>
@@ -11832,7 +12189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>846</v>
       </c>
@@ -11840,7 +12197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>847</v>
       </c>
@@ -11848,7 +12205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>848</v>
       </c>
@@ -11856,7 +12213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>849</v>
       </c>
@@ -11864,15 +12221,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>850</v>
       </c>
       <c r="B852">
         <v>3</v>
       </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C852" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>851</v>
       </c>
@@ -11880,7 +12240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>852</v>
       </c>
@@ -11888,7 +12248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>853</v>
       </c>
@@ -11896,15 +12256,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>854</v>
       </c>
       <c r="B856">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>855</v>
       </c>
@@ -11912,7 +12272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>856</v>
       </c>
@@ -11920,7 +12280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>857</v>
       </c>
@@ -11928,15 +12288,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>858</v>
       </c>
       <c r="B860">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>859</v>
       </c>
@@ -11944,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>860</v>
       </c>
@@ -11952,15 +12312,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>861</v>
       </c>
       <c r="B863">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>862</v>
       </c>
@@ -11968,15 +12331,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>863</v>
       </c>
       <c r="B865">
         <v>3</v>
       </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C865" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>864</v>
       </c>
@@ -11984,23 +12350,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>865</v>
       </c>
       <c r="B867">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>866</v>
       </c>
       <c r="B868">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>867</v>
       </c>
@@ -12008,7 +12374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>868</v>
       </c>
@@ -12016,7 +12382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>869</v>
       </c>
@@ -12024,23 +12390,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>870</v>
       </c>
       <c r="B872">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>871</v>
       </c>
       <c r="B873">
         <v>3</v>
       </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C873" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>872</v>
       </c>
@@ -12048,7 +12417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>873</v>
       </c>
@@ -12056,7 +12425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>874</v>
       </c>
@@ -12064,23 +12433,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>875</v>
       </c>
       <c r="B877">
         <v>3</v>
       </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C877" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>876</v>
       </c>
       <c r="B878">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>877</v>
       </c>
@@ -12088,7 +12460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>878</v>
       </c>
@@ -12096,15 +12468,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>879</v>
       </c>
       <c r="B881">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>880</v>
       </c>
@@ -12112,7 +12484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>881</v>
       </c>
@@ -12120,7 +12492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>882</v>
       </c>
@@ -12128,7 +12500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>883</v>
       </c>
@@ -12136,7 +12508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>884</v>
       </c>
@@ -12144,23 +12516,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>885</v>
       </c>
       <c r="B887">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>886</v>
       </c>
       <c r="B888">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>887</v>
       </c>
@@ -12168,15 +12540,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>888</v>
       </c>
       <c r="B890">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>889</v>
       </c>
@@ -12184,7 +12559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>890</v>
       </c>
@@ -12192,23 +12567,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>891</v>
       </c>
       <c r="B893">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>892</v>
       </c>
       <c r="B894">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>893</v>
       </c>
@@ -12216,7 +12591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>894</v>
       </c>
@@ -12224,7 +12599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>895</v>
       </c>
@@ -12232,7 +12607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>896</v>
       </c>
@@ -12240,7 +12615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>897</v>
       </c>
@@ -12248,7 +12623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>898</v>
       </c>
@@ -12256,7 +12631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>899</v>
       </c>
@@ -12264,15 +12639,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>900</v>
       </c>
       <c r="B902">
         <v>1</v>
       </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C902" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>901</v>
       </c>
@@ -12280,15 +12658,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>902</v>
       </c>
       <c r="B904">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>903</v>
       </c>
@@ -12296,15 +12674,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>904</v>
       </c>
       <c r="B906">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>905</v>
       </c>
@@ -12312,7 +12690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>906</v>
       </c>
@@ -12320,7 +12698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>907</v>
       </c>
@@ -12328,7 +12706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>908</v>
       </c>
@@ -12336,7 +12714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>909</v>
       </c>
@@ -12344,7 +12722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>910</v>
       </c>
@@ -12352,7 +12730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>911</v>
       </c>
@@ -12360,7 +12738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>912</v>
       </c>
@@ -12368,7 +12746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>913</v>
       </c>
@@ -12376,15 +12754,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>914</v>
       </c>
       <c r="B916">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>915</v>
       </c>
@@ -12392,7 +12770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>916</v>
       </c>
@@ -12400,15 +12778,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>917</v>
       </c>
       <c r="B919">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>918</v>
       </c>
@@ -12416,7 +12797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>919</v>
       </c>
@@ -12424,7 +12805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>920</v>
       </c>
@@ -12432,7 +12813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>921</v>
       </c>
@@ -12440,15 +12821,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>922</v>
       </c>
       <c r="B924">
         <v>1</v>
       </c>
-    </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C924" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>923</v>
       </c>
@@ -12456,15 +12840,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>924</v>
       </c>
       <c r="B926">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>925</v>
       </c>
@@ -12472,7 +12859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>926</v>
       </c>
@@ -12480,15 +12867,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>927</v>
       </c>
       <c r="B929">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>928</v>
       </c>
@@ -12496,7 +12883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>929</v>
       </c>
@@ -12504,7 +12891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>930</v>
       </c>
@@ -12512,23 +12899,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>931</v>
       </c>
       <c r="B933">
         <v>1</v>
       </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C933" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>932</v>
       </c>
       <c r="B934">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>933</v>
       </c>
@@ -12536,7 +12929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>934</v>
       </c>
@@ -12544,15 +12937,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>935</v>
       </c>
       <c r="B937">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>936</v>
       </c>
@@ -12560,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>937</v>
       </c>
@@ -12568,7 +12961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>938</v>
       </c>
@@ -12576,7 +12969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>939</v>
       </c>
@@ -12584,7 +12977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>940</v>
       </c>
@@ -12592,15 +12985,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>941</v>
       </c>
       <c r="B943">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>942</v>
       </c>
@@ -12608,15 +13004,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>943</v>
       </c>
       <c r="B945">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>944</v>
       </c>
@@ -12624,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>945</v>
       </c>
@@ -12632,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>946</v>
       </c>
@@ -12640,7 +13039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>947</v>
       </c>
@@ -12648,7 +13047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>948</v>
       </c>
@@ -12656,23 +13055,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>949</v>
       </c>
       <c r="B951">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>950</v>
       </c>
       <c r="B952">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>951</v>
       </c>
@@ -12680,7 +13085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>952</v>
       </c>
@@ -12688,15 +13093,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>953</v>
       </c>
       <c r="B955">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>954</v>
       </c>
@@ -12704,7 +13109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>955</v>
       </c>
@@ -12712,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>956</v>
       </c>
@@ -12720,7 +13125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>957</v>
       </c>
@@ -12728,7 +13133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>958</v>
       </c>
@@ -12736,7 +13141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>959</v>
       </c>
@@ -12744,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>960</v>
       </c>
@@ -12752,7 +13157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>961</v>
       </c>
@@ -12760,23 +13165,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>962</v>
       </c>
       <c r="B964">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>963</v>
       </c>
       <c r="B965">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>964</v>
       </c>
@@ -12784,31 +13192,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>965</v>
       </c>
       <c r="B967">
         <v>3</v>
       </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C967" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>966</v>
       </c>
       <c r="B968">
         <v>3</v>
       </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C968" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>967</v>
       </c>
       <c r="B969">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>968</v>
       </c>
@@ -12816,7 +13230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>969</v>
       </c>
@@ -12824,7 +13238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>970</v>
       </c>
@@ -12832,7 +13246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>971</v>
       </c>
@@ -12840,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>972</v>
       </c>
@@ -12848,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>973</v>
       </c>
@@ -12856,7 +13270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>974</v>
       </c>
@@ -12864,7 +13278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>975</v>
       </c>
@@ -12872,7 +13286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>976</v>
       </c>
@@ -12880,7 +13294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>977</v>
       </c>
@@ -12888,15 +13302,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>978</v>
       </c>
       <c r="B980">
         <v>1</v>
       </c>
-    </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C980" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>979</v>
       </c>
@@ -12904,7 +13321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>980</v>
       </c>
@@ -12912,7 +13329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>981</v>
       </c>
@@ -12920,7 +13337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>982</v>
       </c>
@@ -12928,7 +13345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>983</v>
       </c>
@@ -12936,7 +13353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>984</v>
       </c>
@@ -12944,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>985</v>
       </c>
@@ -12952,15 +13369,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>986</v>
       </c>
       <c r="B988">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>987</v>
       </c>
@@ -12968,15 +13385,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>988</v>
       </c>
       <c r="B990">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>989</v>
       </c>
@@ -12984,15 +13404,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>990</v>
       </c>
       <c r="B992">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>991</v>
       </c>
@@ -13000,23 +13420,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>992</v>
       </c>
       <c r="B994">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>993</v>
       </c>
       <c r="B995">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>994</v>
       </c>
@@ -13024,15 +13447,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>995</v>
       </c>
       <c r="B997">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>996</v>
       </c>
@@ -13040,31 +13463,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>997</v>
       </c>
       <c r="B999">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>1000</v>
       </c>
@@ -13072,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>1001</v>
       </c>
@@ -13080,23 +13503,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>1004</v>
       </c>
@@ -13104,23 +13530,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>1007</v>
       </c>
@@ -13128,15 +13554,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>1009</v>
       </c>
@@ -13144,15 +13570,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>1011</v>
       </c>
@@ -13160,7 +13586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>1012</v>
       </c>
@@ -13168,15 +13594,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>1013</v>
       </c>
       <c r="B1015">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>1014</v>
       </c>
@@ -13184,7 +13610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>1015</v>
       </c>
@@ -13192,7 +13618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>1016</v>
       </c>
@@ -13200,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>1017</v>
       </c>
@@ -13208,15 +13634,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>1019</v>
       </c>
@@ -13224,7 +13653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>1020</v>
       </c>
@@ -13232,7 +13661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>1021</v>
       </c>
@@ -13240,15 +13669,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>1023</v>
       </c>
@@ -13256,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>1024</v>
       </c>
@@ -13264,15 +13696,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>1026</v>
       </c>
@@ -13280,15 +13712,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>1027</v>
       </c>
       <c r="B1029">
         <v>3</v>
       </c>
-    </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1029" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>1028</v>
       </c>
@@ -13296,31 +13731,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>1030</v>
       </c>
       <c r="B1032">
         <v>3</v>
       </c>
-    </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1032" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>1032</v>
       </c>
@@ -13328,7 +13769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>1033</v>
       </c>
@@ -13336,7 +13777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>1034</v>
       </c>
@@ -13344,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>1035</v>
       </c>
@@ -13352,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>1036</v>
       </c>
@@ -13360,15 +13801,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>1038</v>
       </c>
@@ -13376,15 +13817,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>1039</v>
       </c>
       <c r="B1041">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>1040</v>
       </c>
@@ -13392,7 +13836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>1041</v>
       </c>
@@ -13400,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>1042</v>
       </c>
@@ -13408,23 +13852,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>1045</v>
       </c>
@@ -13432,15 +13879,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>1047</v>
       </c>
@@ -13448,15 +13895,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>1049</v>
       </c>
@@ -13464,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>1050</v>
       </c>
@@ -13472,7 +13922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>1051</v>
       </c>
@@ -13480,7 +13930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>1052</v>
       </c>
@@ -13488,7 +13938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>1053</v>
       </c>
@@ -13496,7 +13946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>1054</v>
       </c>
@@ -13504,7 +13954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>1055</v>
       </c>
@@ -13512,7 +13962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>1056</v>
       </c>
@@ -13520,15 +13970,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>1058</v>
       </c>
@@ -13536,7 +13989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>1059</v>
       </c>
@@ -13544,15 +13997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>1061</v>
       </c>
@@ -13560,7 +14013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>1062</v>
       </c>
@@ -13568,7 +14021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>1063</v>
       </c>
@@ -13576,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>1064</v>
       </c>
@@ -13584,7 +14037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>1065</v>
       </c>
@@ -13592,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>1066</v>
       </c>
@@ -13600,7 +14053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>1067</v>
       </c>
@@ -13608,31 +14061,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>1071</v>
       </c>
@@ -13640,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>1072</v>
       </c>
@@ -13648,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>1073</v>
       </c>
@@ -13656,7 +14109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>1074</v>
       </c>
@@ -13664,7 +14117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>1075</v>
       </c>
@@ -13672,7 +14125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>1076</v>
       </c>
@@ -13680,7 +14133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>1077</v>
       </c>
@@ -13688,23 +14141,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>1080</v>
       </c>
@@ -13712,23 +14168,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>1083</v>
       </c>
@@ -13736,7 +14192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>1084</v>
       </c>
@@ -13744,23 +14200,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>1087</v>
       </c>
@@ -13768,7 +14227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>1088</v>
       </c>
@@ -13776,23 +14235,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>1091</v>
       </c>
@@ -13800,7 +14262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>1092</v>
       </c>
@@ -13808,7 +14270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>1093</v>
       </c>
@@ -13816,15 +14278,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>1094</v>
       </c>
       <c r="B1096">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>1095</v>
       </c>
@@ -13832,7 +14297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>1096</v>
       </c>
@@ -13840,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>1097</v>
       </c>
@@ -13848,7 +14313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>1098</v>
       </c>
@@ -13856,23 +14321,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>1099</v>
       </c>
       <c r="B1101">
         <v>1</v>
       </c>
-    </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1101" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>1100</v>
       </c>
       <c r="B1102">
         <v>3</v>
       </c>
-    </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1102" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>1101</v>
       </c>
@@ -13880,15 +14351,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>1102</v>
       </c>
       <c r="B1104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>1103</v>
       </c>
@@ -13896,15 +14367,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>1104</v>
       </c>
       <c r="B1106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>1105</v>
       </c>
@@ -13912,7 +14386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>1106</v>
       </c>
@@ -13920,7 +14394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>1107</v>
       </c>
@@ -13928,15 +14402,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>1108</v>
       </c>
       <c r="B1110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>1109</v>
       </c>
@@ -13944,7 +14421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>1110</v>
       </c>
@@ -13952,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>1111</v>
       </c>
@@ -13960,7 +14437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>1112</v>
       </c>
@@ -13968,7 +14445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>1113</v>
       </c>
@@ -13976,7 +14453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>1114</v>
       </c>
@@ -13984,7 +14461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>1115</v>
       </c>
@@ -13992,7 +14469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>1116</v>
       </c>
@@ -14000,7 +14477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>1117</v>
       </c>
@@ -14008,7 +14485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>1118</v>
       </c>
@@ -14016,23 +14493,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>1121</v>
       </c>
@@ -14040,7 +14520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>1122</v>
       </c>
@@ -14048,7 +14528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>1123</v>
       </c>
@@ -14056,7 +14536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>1124</v>
       </c>
@@ -14064,15 +14544,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>1125</v>
       </c>
       <c r="B1127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>1126</v>
       </c>
@@ -14080,7 +14560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>1127</v>
       </c>
@@ -14088,7 +14568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>1128</v>
       </c>
@@ -14096,7 +14576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>1129</v>
       </c>
@@ -14104,7 +14584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>1130</v>
       </c>
@@ -14112,7 +14592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>1131</v>
       </c>
@@ -14120,7 +14600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>1132</v>
       </c>
@@ -14128,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>1133</v>
       </c>
@@ -14136,12 +14616,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>1134</v>
       </c>
       <c r="B1136">
         <v>3</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
@@ -14181,7 +14664,7 @@
         <v>1139</v>
       </c>
       <c r="B1141">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
@@ -14189,7 +14672,7 @@
         <v>1140</v>
       </c>
       <c r="B1142">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
@@ -14261,7 +14744,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
@@ -14272,15 +14755,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>1152</v>
       </c>
@@ -14288,7 +14771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>1153</v>
       </c>
@@ -14296,7 +14779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>1154</v>
       </c>
@@ -14304,7 +14787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>1155</v>
       </c>
@@ -14312,7 +14795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>1156</v>
       </c>
@@ -14320,15 +14803,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>1158</v>
       </c>
@@ -14336,7 +14819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>1159</v>
       </c>
@@ -14344,23 +14827,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>1162</v>
       </c>
@@ -14368,7 +14857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>1163</v>
       </c>
@@ -14376,7 +14865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>1164</v>
       </c>
@@ -14384,23 +14873,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>1165</v>
       </c>
       <c r="B1167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>1166</v>
       </c>
       <c r="B1168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>1167</v>
       </c>
@@ -14408,7 +14897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>1168</v>
       </c>
@@ -14416,7 +14905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>1169</v>
       </c>
@@ -14424,7 +14913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>1170</v>
       </c>
@@ -14432,15 +14921,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>1172</v>
       </c>
@@ -14448,7 +14940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>1173</v>
       </c>
@@ -14456,23 +14948,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>1176</v>
       </c>
@@ -14480,7 +14972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>1177</v>
       </c>
@@ -14488,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>1178</v>
       </c>
@@ -14496,7 +14988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>1179</v>
       </c>
@@ -14504,15 +14996,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>1180</v>
       </c>
       <c r="B1182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>1181</v>
       </c>
@@ -14520,7 +15012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>1182</v>
       </c>
@@ -14528,23 +15020,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>1183</v>
       </c>
       <c r="B1185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>1184</v>
       </c>
       <c r="B1186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
         <v>1185</v>
       </c>
@@ -14552,23 +15047,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
         <v>1186</v>
       </c>
       <c r="B1188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
         <v>1187</v>
       </c>
       <c r="B1189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
         <v>1188</v>
       </c>
@@ -14576,7 +15071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
         <v>1189</v>
       </c>
@@ -14584,7 +15079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
         <v>1190</v>
       </c>
@@ -14592,15 +15087,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
         <v>1192</v>
       </c>
@@ -14608,7 +15103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
         <v>1193</v>
       </c>
@@ -14616,7 +15111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
         <v>1194</v>
       </c>
@@ -14624,7 +15119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
         <v>1195</v>
       </c>
@@ -14632,7 +15127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
         <v>1196</v>
       </c>
@@ -14640,23 +15135,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
         <v>1197</v>
       </c>
       <c r="B1199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
         <v>1199</v>
       </c>
@@ -14664,23 +15165,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
         <v>1201</v>
       </c>
       <c r="B1203">
         <v>2</v>
       </c>
-    </row>
-    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1203" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
         <v>1202</v>
       </c>
@@ -14688,7 +15195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
         <v>1203</v>
       </c>
@@ -14696,15 +15203,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
         <v>1205</v>
       </c>
@@ -14712,7 +15222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
         <v>1206</v>
       </c>
@@ -14720,15 +15230,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
         <v>1207</v>
       </c>
       <c r="B1209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
         <v>1208</v>
       </c>
@@ -14736,7 +15249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
         <v>1209</v>
       </c>
@@ -14744,15 +15257,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
         <v>1210</v>
       </c>
       <c r="B1212">
         <v>3</v>
       </c>
-    </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1212" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
         <v>1211</v>
       </c>
@@ -14760,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
         <v>1212</v>
       </c>
@@ -14768,7 +15284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
         <v>1213</v>
       </c>
@@ -14776,7 +15292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>1214</v>
       </c>
@@ -14784,7 +15300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
         <v>1215</v>
       </c>
@@ -14792,15 +15308,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
         <v>1217</v>
       </c>
@@ -14808,7 +15327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
         <v>1218</v>
       </c>
@@ -14816,15 +15335,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
         <v>1219</v>
       </c>
       <c r="B1221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
         <v>1220</v>
       </c>
@@ -14832,7 +15351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
         <v>1221</v>
       </c>
@@ -14840,7 +15359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
         <v>1222</v>
       </c>
@@ -14848,7 +15367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
         <v>1223</v>
       </c>
@@ -14856,23 +15375,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
         <v>1225</v>
       </c>
       <c r="B1227">
         <v>3</v>
       </c>
-    </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1227" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
         <v>1226</v>
       </c>
@@ -14880,7 +15405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
         <v>1227</v>
       </c>
@@ -14888,15 +15413,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
         <v>1228</v>
       </c>
       <c r="B1230">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
         <v>1229</v>
       </c>
@@ -14904,7 +15432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
         <v>1230</v>
       </c>
@@ -14912,1117 +15440,1823 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1288">
+        <v>1</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1334">
+        <v>1</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1362">
+        <v>2</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1365">
+        <v>1</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1367">
+        <v>1</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1374">
+        <v>1</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1377">
+        <v>1</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1396">
+        <v>4</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1402">
+        <v>1</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1407">
+        <v>1</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1420">
+        <v>1</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1444">
+        <v>1</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1451">
+        <v>2</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
         <v>1452</v>
       </c>
+      <c r="B1454">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A583D-86F7-4AED-99DE-4D1041EA13EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CC8AA-14AD-4E57-8176-EDFD7B3E5E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1577">
   <si>
     <t>נר"ו</t>
   </si>
@@ -4402,9 +4402,6 @@
     <t>*משמש גם כתואר וגם כחלק ראשון</t>
   </si>
   <si>
-    <t>*יותר מופיע כמקצוע לבד מכתיאור כבוד</t>
-  </si>
-  <si>
     <t>*מופיע גם כשם וגם כתואר</t>
   </si>
   <si>
@@ -4414,42 +4411,21 @@
     <t>*משה ישראל חזן</t>
   </si>
   <si>
-    <t>*לא תואר יותר מקצוע</t>
-  </si>
-  <si>
     <t>*הכונה צבי - לא ברור למה מוסיפים " במילה זו</t>
   </si>
   <si>
-    <t>*מופיע גם כביטוי מורי ואלופי וגם כתואר לתפיק אלופי הקהל וגם כתואר כבוד</t>
-  </si>
-  <si>
     <t>*לא תואר כבוד יותר תיאור - מחבר ספר - כזיהוי</t>
   </si>
   <si>
-    <t xml:space="preserve">*יותר מופיע כמקצוע </t>
-  </si>
-  <si>
     <t>*מציין שנה</t>
   </si>
   <si>
     <t>*חלק מביטוי אור ישראל וקודשו</t>
   </si>
   <si>
-    <t>*כנראה שם פרטי אמצעי בשפה זרה של חכם שמופיע הרבה בטקסט</t>
-  </si>
-  <si>
-    <t>*ידיו ורגליו</t>
-  </si>
-  <si>
-    <t>*מופיע הרבה לא כתואר כבוד לאנשים מסויימים אלא כדיבור על אנשים סתמיים</t>
-  </si>
-  <si>
     <t>*נשמתו בגנזי מרומים</t>
   </si>
   <si>
-    <t>*יותר מקצוע מתואר כבוד</t>
-  </si>
-  <si>
     <t>*להבדיל בין חיים לחיים</t>
   </si>
   <si>
@@ -4459,12 +4435,6 @@
     <t>*לפעמים חלק מתואר אביר הרועים לפעמים תואר אביר יעקב לפעמים ציטוט הפסוק אביר יעקב ולפעמים ספר אביר יעקב</t>
   </si>
   <si>
-    <t>*מופיע בעיקר כדרך לפניה בגוף שלישי ולא כתואר לפני השם</t>
-  </si>
-  <si>
-    <t>*מופיע בעיקר כתפקיד ולא כתואר כבוד</t>
-  </si>
-  <si>
     <t xml:space="preserve">*מופיע הרבה כתואר כבוד אבל גם לא מעט כקיצור למילה "כמות" </t>
   </si>
   <si>
@@ -4492,9 +4462,6 @@
     <t>*הרבה כפניה סתמית</t>
   </si>
   <si>
-    <t>*בעיקר כמקצוע</t>
-  </si>
-  <si>
     <t>*תואר לפני שם של עיר</t>
   </si>
   <si>
@@ -4516,9 +4483,6 @@
     <t>*חלק מביטוי של הרב הראשי של...</t>
   </si>
   <si>
-    <t>*לפעמים מופיע כברכה לאחר הזכרת אנשי מקום כלשהו ולא כתואר לאדם מסויים</t>
-  </si>
-  <si>
     <t>*לפעמים קצת בעייתי - מופיע כחבר של אדם פלוני ולא כתואר כבוד- וכן מופיע כתיאור ל"חבר" במעשרות וישנם איזכורים לחבר בספר הכוזרי אך ישנם גם לא מעט הופעות כתואר כבוד לרב</t>
   </si>
   <si>
@@ -4528,9 +4492,6 @@
     <t>*הרבה פעים כחלק מביטוי "סבא דמשפטים" שבא כתואר כבוד</t>
   </si>
   <si>
-    <t>*יותר תפקיד מתואר כבוד</t>
-  </si>
-  <si>
     <t>*כנראהתואר כבוד לא הבנתי מה הפתיחה</t>
   </si>
   <si>
@@ -4579,9 +4540,6 @@
     <t>*יותר מוסיע ביחס לספרים וכתבים, וכן ישנו ספר הבהיר , וכן ישנם מקומות שהכוונה שהוא הבהיר את דבריו</t>
   </si>
   <si>
-    <t>*תואר ענווה עצמי זה תואר כבוד?</t>
-  </si>
-  <si>
     <t>*לא כבוד בדויק, מחבר ספר זה ציון לצורך זיהוי</t>
   </si>
   <si>
@@ -4597,12 +4555,6 @@
     <t>*גברא רבה ויקירא אך מופיע גם ביחס לדברים נוספים כגון מחילה רבה ויקירא או ב"ד רבה ויקירא</t>
   </si>
   <si>
-    <t>*כבוד אך גם מקצוע</t>
-  </si>
-  <si>
-    <t>*ככל הנראה דקהילת או משהו בסיגנון</t>
-  </si>
-  <si>
     <t>*ישנם גם אזכורים שאינם קשורים לכבוד כגון בית הדין הרבני</t>
   </si>
   <si>
@@ -4621,36 +4573,21 @@
     <t>*מחתם סופר, מחרם סתם, וגם מחבר ספר זה לא כל כך תואר כבוד אלא ציון לצורך זיהוי</t>
   </si>
   <si>
-    <t>*תפקיד יותר מכבוד</t>
-  </si>
-  <si>
     <t xml:space="preserve">* כנראה יראה זרע יאריך ימים אמן </t>
   </si>
   <si>
     <t>*כנל לגבי שאר המוצים</t>
   </si>
   <si>
-    <t xml:space="preserve">*אולי זה הפוך מתואר כבוד? </t>
-  </si>
-  <si>
     <t>*לא רק במובן הצבאי אלא גם תואר לחשיבות ושררה</t>
   </si>
   <si>
-    <t>*כנל לגבי אבד</t>
-  </si>
-  <si>
     <t>* יכוננה בצדק - זה תיאור למקומות ולא לאנשים</t>
   </si>
   <si>
-    <t>*הרבה פעמים מופיע כשער הזקן או לאדם שהוא הזדקן וקיים מספר מסויים של תארים של זקן (הרבה גם מתוך כינויי הראשונים והתנאים: שמאי הזקן ר"י הזקן)</t>
-  </si>
-  <si>
     <t>*אחר דרישת שלומו הטוב</t>
   </si>
   <si>
-    <t>*כנל לגבי אב"ד</t>
-  </si>
-  <si>
     <t>*לפעמים מציין סימן</t>
   </si>
   <si>
@@ -4681,9 +4618,6 @@
     <t>*הדיין המצוין</t>
   </si>
   <si>
-    <t>*כנל לגבי ראבד</t>
-  </si>
-  <si>
     <t>*מופעי ככבוד אך גם כתאור לאדם סתמי שהוא אברך וכן כעתיד גוף ראשון של ברך - אני אברך אותך</t>
   </si>
   <si>
@@ -4696,9 +4630,6 @@
     <t>*רום פאר מעלתו</t>
   </si>
   <si>
-    <t>*כנל לגבי מוץ</t>
-  </si>
-  <si>
     <t>*מופיע גם כתואר כבוד אך גם הרבה כחלק משם של ספר</t>
   </si>
   <si>
@@ -4738,9 +4669,6 @@
     <t>*קצת מסופק לגבי זה, מופיע בעיקר כ נתכבדתי ביקרתו</t>
   </si>
   <si>
-    <t>*למעלה - הנזכר למעלה</t>
-  </si>
-  <si>
     <t>*בוצינא דנהורא</t>
   </si>
   <si>
@@ -4768,7 +4696,61 @@
     <t>*מופיע גם ביחס לדברים</t>
   </si>
   <si>
-    <t>*האבה פעמים מופיע בהקשרים שונים לא קשורים, כנראה גם ראשי תיבות של חכם או ספר</t>
+    <t>*זה מופיע כתיאור עצמי ולא כתואר לאחרים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*בהתחלה חשבתי שזה יותר מופיע כמקצוע לבד מכתיאור כבוד אך החלטתי שזה כן עונה להגדרה </t>
+  </si>
+  <si>
+    <t>*בהתחלה חשבתי שזה לא תואר אלא יותר מקצוע אך החלטתי שעונה להגדרה</t>
+  </si>
+  <si>
+    <t>*כנ"ל לגבי המו"ץ</t>
+  </si>
+  <si>
+    <t>*מופיע גם כביטוי מורי ואלופי וגם כתואר לתפקיד אלופי הקהל וגם כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*כנל לגבי מו"ץ</t>
+  </si>
+  <si>
+    <t>*מופיע כידיו ורגליו אך גם כיורנו רבנו וכיושב ראש</t>
+  </si>
+  <si>
+    <t>*מופיע הרבה לא כתואר כבוד לאנשים מסויימים אלא כדיבור על אנשים סתמיים אך עדיין זה תואר</t>
+  </si>
+  <si>
+    <t>*כנ"ל לגבי מו"ץ</t>
+  </si>
+  <si>
+    <t>*מופיע בעיקר כדרך לפניה בגוף שלישי ולא כתואר לפני השם אך זו עדיין פניה של תואר כבוד</t>
+  </si>
+  <si>
+    <t>*לפעמים מופיע כברכה לאחר הזכרת אנשי מקום כלשהו ולא ביחס לאדם מסויים</t>
+  </si>
+  <si>
+    <t>*תואר עצמי לא לאחרים</t>
+  </si>
+  <si>
+    <t>*ככל הנראה דקהילת</t>
+  </si>
+  <si>
+    <t>*הרבה פעמים מופיע כשיער הזקן או לאדם שהוא הזדקן וקיים מספר מסויים של תארים של זקן (הרבה גם מתוך כינויי הראשונים והתנאים: שמאי הזקן ר"י הזקן)</t>
+  </si>
+  <si>
+    <t>*כנ" לגבי מו"ץ</t>
+  </si>
+  <si>
+    <t>*מופיע כראיה וכחלק מתואר מופת הדור</t>
+  </si>
+  <si>
+    <t>*למעלה - הנזכר למעלה וכן כתואר כבוד</t>
+  </si>
+  <si>
+    <t>*הרבה פעמים מופיע בהקשרים שונים לא קשורים, כנראה גם ראשי תיבות של חכם או ספר</t>
+  </si>
+  <si>
+    <t>*בהתחלה חשבתי להוציא את זה כי זה מופיע גם כמקצוע, אך החלטתי שבהרבה הקשרים זה כן עונה להגדרה</t>
   </si>
 </sst>
 </file>
@@ -5144,20 +5126,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1454"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1452" sqref="C1452"/>
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5150,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5161,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5190,7 +5172,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5198,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5206,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5214,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5222,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5230,81 +5212,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5563,7 +5524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5571,18 +5532,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="J50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5590,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5598,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5606,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5614,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5622,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5630,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5638,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5646,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5654,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5662,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5670,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5678,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5686,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -6337,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -6345,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -6353,29 +6311,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="I147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
-      <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6383,7 +6335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -6391,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6399,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6407,7 +6359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -6415,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6423,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -6431,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -6439,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -6447,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6455,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6463,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6733,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -6741,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -6749,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -6757,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -6765,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -6773,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -6781,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -6789,18 +6741,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-      <c r="J200" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -6808,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -6816,7 +6765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -6824,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -6832,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -6840,7 +6789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -6848,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -6856,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -6869,10 +6818,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>1460</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,7 +6888,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -7054,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -7088,6 +7037,9 @@
       <c r="B235">
         <v>2</v>
       </c>
+      <c r="C235" t="s">
+        <v>1558</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -7169,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>1460</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -7193,7 +7145,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -7436,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -7444,10 +7396,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>1464</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -7498,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -7653,29 +7605,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>303</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
-      <c r="J305" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
       <c r="B306">
         <v>2</v>
       </c>
-      <c r="J306" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -7683,18 +7629,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>306</v>
       </c>
       <c r="B308">
         <v>4</v>
       </c>
-      <c r="J308" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -7702,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -7710,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -7718,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -7726,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -7734,7 +7677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -7742,18 +7685,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>313</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -7761,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -7769,7 +7712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -7777,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -7785,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -7921,18 +7864,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -7940,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -7948,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -7956,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -7964,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -7972,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -7980,7 +7923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -7988,7 +7931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -7996,7 +7939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -8004,10 +7947,10 @@
         <v>3</v>
       </c>
       <c r="C346" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -8015,7 +7958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -8023,7 +7966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -8031,7 +7974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -8039,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -8047,15 +7990,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>350</v>
       </c>
       <c r="B352">
         <v>2</v>
-      </c>
-      <c r="J352" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -8415,10 +8355,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C397" t="s">
-        <v>1468</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -8573,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -8581,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -8589,7 +8529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -8597,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -8605,7 +8545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -8613,7 +8553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -8621,7 +8561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -8629,7 +8569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -8637,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -8645,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -8653,7 +8593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -8661,7 +8601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -8669,13 +8609,10 @@
         <v>2</v>
       </c>
       <c r="C428" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J428" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -8683,7 +8620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -8691,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -8699,7 +8636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -8811,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="C445" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9035,10 +8972,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>2</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9046,10 +8980,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C474" t="s">
-        <v>1472</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9100,7 +9034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -9108,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -9116,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -9124,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -9132,18 +9066,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>483</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -9151,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -9159,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -9167,7 +9101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -9175,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -9183,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -9191,7 +9125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -9199,7 +9133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -9207,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -9215,18 +9149,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>493</v>
       </c>
       <c r="B495">
         <v>2</v>
       </c>
-      <c r="J495" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -9546,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="C535" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -9594,10 +9525,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C541" t="s">
-        <v>1475</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -9656,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="C548" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -9755,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -9763,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -9771,7 +9702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -9779,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -9787,7 +9718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -9795,7 +9726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -9803,40 +9734,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>565</v>
       </c>
       <c r="B567">
         <v>2</v>
       </c>
-      <c r="J567" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>566</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C568" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>567</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C569" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -9844,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>569</v>
       </c>
@@ -9852,7 +9780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -9860,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -9868,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -9876,7 +9804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -9884,7 +9812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -9905,10 +9833,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C578" t="s">
-        <v>1479</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -9924,10 +9852,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C580" t="s">
-        <v>1480</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -9935,10 +9863,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C581" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -10106,10 +10034,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -10232,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="C617" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -10283,7 +10211,7 @@
         <v>2</v>
       </c>
       <c r="C623" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -10355,10 +10283,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C632" t="s">
-        <v>1475</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -10369,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="C633" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -10465,10 +10393,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C645" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -10535,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="C653" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -10554,7 +10482,7 @@
         <v>2</v>
       </c>
       <c r="C655" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -10581,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="C658" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -10605,10 +10533,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C661" t="s">
-        <v>1490</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -10675,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="C669" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -10755,10 +10683,10 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C679" t="s">
-        <v>1475</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
@@ -10862,10 +10790,10 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C692" t="s">
-        <v>1475</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -10892,7 +10820,7 @@
         <v>2</v>
       </c>
       <c r="C695" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -10991,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="C707" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -11047,7 +10975,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -11066,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="C716" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -11149,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="C726" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -11192,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="C731" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -11208,10 +11136,10 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C733" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -11278,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C741" t="s">
-        <v>1498</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
@@ -11305,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="C744" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
@@ -11316,7 +11244,7 @@
         <v>2</v>
       </c>
       <c r="C745" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
@@ -11324,10 +11252,10 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C746" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
@@ -11495,10 +11423,10 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C767" t="s">
-        <v>1502</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
@@ -11549,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="C773" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
@@ -11576,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="C776" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
@@ -11627,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="C782" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
@@ -11694,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="C790" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
@@ -11705,7 +11633,7 @@
         <v>3</v>
       </c>
       <c r="C791" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -11737,10 +11665,10 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C795" t="s">
-        <v>793</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
@@ -11750,9 +11678,6 @@
       <c r="B796">
         <v>2</v>
       </c>
-      <c r="C796" t="s">
-        <v>1475</v>
-      </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
@@ -11762,7 +11687,7 @@
         <v>3</v>
       </c>
       <c r="C797" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
@@ -11837,7 +11762,7 @@
         <v>4</v>
       </c>
       <c r="C806" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
@@ -11896,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="C813" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -11955,7 +11880,7 @@
         <v>2</v>
       </c>
       <c r="C820" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -12038,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="C830" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -12054,10 +11979,10 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C832" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
@@ -12100,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="C837" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
@@ -12143,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="C842" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
@@ -12170,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="C845" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -12229,7 +12154,7 @@
         <v>3</v>
       </c>
       <c r="C852" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -12320,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="C863" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
@@ -12336,10 +12261,10 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C865" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -12406,7 +12331,7 @@
         <v>3</v>
       </c>
       <c r="C873" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -12441,7 +12366,7 @@
         <v>3</v>
       </c>
       <c r="C877" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
@@ -12548,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="C890" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
@@ -12647,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="C902" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -12786,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="C919" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -12829,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="C924" t="s">
-        <v>1525</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
@@ -12848,7 +12773,7 @@
         <v>2</v>
       </c>
       <c r="C926" t="s">
-        <v>1526</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
@@ -12872,7 +12797,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -12907,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="C933" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -12918,7 +12843,7 @@
         <v>3</v>
       </c>
       <c r="C934" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -12993,7 +12918,7 @@
         <v>2</v>
       </c>
       <c r="C943" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
@@ -13012,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="C945" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -13063,7 +12988,7 @@
         <v>4</v>
       </c>
       <c r="C951" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
@@ -13074,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="C952" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
@@ -13178,10 +13103,10 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C965" t="s">
-        <v>1533</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
@@ -13197,10 +13122,10 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C967" t="s">
-        <v>1534</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
@@ -13208,10 +13133,10 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C968" t="s">
-        <v>1535</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
@@ -13307,10 +13232,10 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C980" t="s">
-        <v>1536</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
@@ -13393,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="C990" t="s">
-        <v>1537</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
@@ -13433,10 +13358,10 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C995" t="s">
-        <v>1538</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
@@ -13511,7 +13436,7 @@
         <v>2</v>
       </c>
       <c r="C1004" t="s">
-        <v>1539</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -13642,7 +13567,7 @@
         <v>2</v>
       </c>
       <c r="C1020" t="s">
-        <v>1540</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
@@ -13677,7 +13602,7 @@
         <v>2</v>
       </c>
       <c r="C1024" t="s">
-        <v>1541</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
@@ -13717,10 +13642,10 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1029" t="s">
-        <v>1542</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
@@ -13739,7 +13664,7 @@
         <v>4</v>
       </c>
       <c r="C1031" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
@@ -13750,7 +13675,7 @@
         <v>3</v>
       </c>
       <c r="C1032" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
@@ -13825,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="C1041" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
@@ -13860,7 +13785,7 @@
         <v>2</v>
       </c>
       <c r="C1045" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
@@ -13903,7 +13828,7 @@
         <v>2</v>
       </c>
       <c r="C1050" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
@@ -13978,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="C1059" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
@@ -14157,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="C1081" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
@@ -14216,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="C1088" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
@@ -14243,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="C1091" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
@@ -14286,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="C1096" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
@@ -14329,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="C1101" t="s">
-        <v>1553</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
@@ -14340,7 +14265,7 @@
         <v>3</v>
       </c>
       <c r="C1102" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
@@ -14375,7 +14300,7 @@
         <v>2</v>
       </c>
       <c r="C1106" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
@@ -14410,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="C1110" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
@@ -14509,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="C1122" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
@@ -14621,10 +14546,10 @@
         <v>1134</v>
       </c>
       <c r="B1136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1136" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
@@ -14835,7 +14760,7 @@
         <v>3</v>
       </c>
       <c r="C1162" t="s">
-        <v>1559</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
@@ -14846,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="C1163" t="s">
-        <v>1560</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="C1173" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
@@ -15028,7 +14953,7 @@
         <v>2</v>
       </c>
       <c r="C1185" t="s">
-        <v>1561</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
@@ -15143,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="C1199" t="s">
-        <v>1562</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
@@ -15151,10 +15076,10 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1200" t="s">
-        <v>1538</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
@@ -15170,10 +15095,10 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1202" t="s">
-        <v>1538</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
@@ -15184,7 +15109,7 @@
         <v>2</v>
       </c>
       <c r="C1203" t="s">
-        <v>1563</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
@@ -15211,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="C1206" t="s">
-        <v>1564</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
@@ -15238,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="C1209" t="s">
-        <v>1565</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
@@ -15265,7 +15190,7 @@
         <v>3</v>
       </c>
       <c r="C1212" t="s">
-        <v>1566</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
@@ -15316,7 +15241,7 @@
         <v>2</v>
       </c>
       <c r="C1218" t="s">
-        <v>1567</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
@@ -15383,7 +15308,7 @@
         <v>2</v>
       </c>
       <c r="C1226" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
@@ -15391,10 +15316,10 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1227" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
@@ -15410,7 +15335,10 @@
         <v>1227</v>
       </c>
       <c r="B1229">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
@@ -15421,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="C1230" t="s">
-        <v>1569</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
@@ -15888,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="C1288" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
@@ -16259,7 +16187,7 @@
         <v>1</v>
       </c>
       <c r="C1334" t="s">
-        <v>1571</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
@@ -16483,10 +16411,10 @@
         <v>1360</v>
       </c>
       <c r="B1362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1362" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
@@ -16513,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="C1365" t="s">
-        <v>1573</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
@@ -16532,7 +16460,7 @@
         <v>1</v>
       </c>
       <c r="C1367" t="s">
-        <v>1574</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
@@ -16591,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="C1374" t="s">
-        <v>1575</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
@@ -16618,7 +16546,7 @@
         <v>1</v>
       </c>
       <c r="C1377" t="s">
-        <v>1576</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
@@ -16773,7 +16701,7 @@
         <v>4</v>
       </c>
       <c r="C1396" t="s">
-        <v>1577</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
@@ -16824,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="C1402" t="s">
-        <v>1578</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
@@ -16867,7 +16795,7 @@
         <v>1</v>
       </c>
       <c r="C1407" t="s">
-        <v>1579</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
@@ -16974,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="C1420" t="s">
-        <v>1580</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
@@ -17169,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="C1444" t="s">
-        <v>1581</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
@@ -17228,7 +17156,7 @@
         <v>2</v>
       </c>
       <c r="C1451" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
